--- a/DOM_Banner/output/dept0713/Wayne Tyrus Willis_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Wayne Tyrus Willis_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA; Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321506988</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Can non-equilibrium thermodynamics explain skeletal muscle insulin resistance due to low mitochondrial content?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Lancet Diabetes &amp; Endocrinology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36822742</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Wayne Tyrus Willis_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Wayne Tyrus Willis_2023.xlsx
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa B. Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
